--- a/Marketing/osu.roomme.xlsx
+++ b/Marketing/osu.roomme.xlsx
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">

--- a/Marketing/osu.roomme.xlsx
+++ b/Marketing/osu.roomme.xlsx
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">

--- a/Marketing/osu.roomme.xlsx
+++ b/Marketing/osu.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B489"/>
+  <dimension ref="A1:B397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mjlandon05</t>
+          <t>vigneau77777</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>asmoller23</t>
+          <t>aayush_paul18</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>devyn.tusinac</t>
+          <t>beccaajenny</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jack_nadal_</t>
+          <t>abbey.kash</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>itstryphenaa</t>
+          <t>ayjonathann</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>__.demi._____</t>
+          <t>dylancrowe16</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>hedy._.wu</t>
+          <t>alliestrosnider</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>mark_azer1</t>
+          <t>emmalove313_</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>emmettluzar</t>
+          <t>_tessathomas_</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>_oliviaharden</t>
+          <t>kukreja_a33</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>maddybrubeck</t>
+          <t>sanjitr11</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>sierrabombik</t>
+          <t>madison_kirschner</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>allieb125</t>
+          <t>_ashisgod</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>nick_fleischmann23</t>
+          <t>marissa_shell</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>paytonspringerr</t>
+          <t>sachichhibbes212</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>jun_young27</t>
+          <t>maddie_riga</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>laurencotellesse</t>
+          <t>emmagoodingg</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>sydney_king465</t>
+          <t>joshkraft_7</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>nicklucci0</t>
+          <t>matturda7</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,2607 +648,2607 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>swarajmohapatra_</t>
+          <t>piper_holmes</t>
         </is>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>reya.mehtaa</t>
+          <t>puneet.singh13</t>
         </is>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>acaciaosu</t>
+          <t>kyaangle</t>
         </is>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>evaneichel7</t>
+          <t>joeyglukh</t>
         </is>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>liamtaliano</t>
+          <t>ianmirowitz_</t>
         </is>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>tristaamayy</t>
+          <t>camii_dan</t>
         </is>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>benn.davis2</t>
+          <t>0in_lucy</t>
         </is>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>emilyclark1704</t>
+          <t>pietmush_</t>
         </is>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ellaanderson._</t>
+          <t>lillyweber_</t>
         </is>
       </c>
       <c r="B30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>saharsh_thummala</t>
+          <t>asmoller23</t>
         </is>
       </c>
       <c r="B31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>_alyssamerkle_</t>
+          <t>mikey_chaykowski</t>
         </is>
       </c>
       <c r="B32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>haleychreps_7</t>
+          <t>natalieborsch</t>
         </is>
       </c>
       <c r="B33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>dominiquewrkmn</t>
+          <t>alexabeegun</t>
         </is>
       </c>
       <c r="B34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ishan.prabhakar</t>
+          <t>anneliselinhelwig</t>
         </is>
       </c>
       <c r="B35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>jackson_hopkins23</t>
+          <t>reese.priel</t>
         </is>
       </c>
       <c r="B36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ryanhodgson_</t>
+          <t>jaysonfronk</t>
         </is>
       </c>
       <c r="B37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>mollyod3ll</t>
+          <t>livyrose.c</t>
         </is>
       </c>
       <c r="B38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>jeevaasundaraam</t>
+          <t>taraamccusker</t>
         </is>
       </c>
       <c r="B39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ali.saraeb</t>
+          <t>cplatt004</t>
         </is>
       </c>
       <c r="B40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>masonwilli3ms</t>
+          <t>bush.reagan</t>
         </is>
       </c>
       <c r="B41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>mayajeras</t>
+          <t>nsmith_912</t>
         </is>
       </c>
       <c r="B42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>gabbyherrera1107</t>
+          <t>tri.halilif</t>
         </is>
       </c>
       <c r="B43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>gustavo.gomezd</t>
+          <t>walteeer20</t>
         </is>
       </c>
       <c r="B44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ashleyhaveri</t>
+          <t>leahjohnstonn_</t>
         </is>
       </c>
       <c r="B45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>michaelkeselman</t>
+          <t>gaya_bosch</t>
         </is>
       </c>
       <c r="B46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ayushiii.patelll</t>
+          <t>monaa_gopinath</t>
         </is>
       </c>
       <c r="B47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>sydnietrinh</t>
+          <t>gwenreed013</t>
         </is>
       </c>
       <c r="B48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>cplatt004</t>
+          <t>millenadesta</t>
         </is>
       </c>
       <c r="B49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>sam.lahullier</t>
+          <t>tylerpliszkaa</t>
         </is>
       </c>
       <c r="B50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>nathan_12.21</t>
+          <t>mayres_17</t>
         </is>
       </c>
       <c r="B51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>taylor_sullivan__</t>
+          <t>aryanbommena</t>
         </is>
       </c>
       <c r="B52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>no.limit.matt</t>
+          <t>nic.digena</t>
         </is>
       </c>
       <c r="B53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>leahjohnstonn_</t>
+          <t>sandheep_r34</t>
         </is>
       </c>
       <c r="B54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ryder_p75</t>
+          <t>brendanwat_12</t>
         </is>
       </c>
       <c r="B55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>avawolfe_</t>
+          <t>haleychreps_7</t>
         </is>
       </c>
       <c r="B56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>stephen_karounos</t>
+          <t>grantyes05</t>
         </is>
       </c>
       <c r="B57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>_dominicbellini</t>
+          <t>laylamouneimne</t>
         </is>
       </c>
       <c r="B58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>juliamulderig</t>
+          <t>oalphonso1</t>
         </is>
       </c>
       <c r="B59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>pranavr8642</t>
+          <t>jazielcortez</t>
         </is>
       </c>
       <c r="B60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>calebfriedman_</t>
+          <t>ellaanderson._</t>
         </is>
       </c>
       <c r="B61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>gannon.l</t>
+          <t>sidneyythompson</t>
         </is>
       </c>
       <c r="B62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>0in_lucy</t>
+          <t>_oliviaharden</t>
         </is>
       </c>
       <c r="B63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>73sowens</t>
+          <t>laura.felderean</t>
         </is>
       </c>
       <c r="B64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>riley.bonner</t>
+          <t>luisotarola.1</t>
         </is>
       </c>
       <c r="B65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>iangittins__</t>
+          <t>sahana.d_</t>
         </is>
       </c>
       <c r="B66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>netaelrann</t>
+          <t>ca.rlii</t>
         </is>
       </c>
       <c r="B67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>_sophielemond</t>
+          <t>haley.ottman</t>
         </is>
       </c>
       <c r="B68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>abbyorazen</t>
+          <t>ashleyhaveri</t>
         </is>
       </c>
       <c r="B69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>_dlm23_</t>
+          <t>alyssa.macey</t>
         </is>
       </c>
       <c r="B70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>kenzienels</t>
+          <t>mya.imbrock</t>
         </is>
       </c>
       <c r="B71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>kenzie.copenhaver</t>
+          <t>_dlm23_</t>
         </is>
       </c>
       <c r="B72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ash.sequeira</t>
+          <t>anuragkej</t>
         </is>
       </c>
       <c r="B73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>jeremy.abdelmalak</t>
+          <t>reese_hearon8</t>
         </is>
       </c>
       <c r="B74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>colin_27_batten</t>
+          <t>kennshamarr._</t>
         </is>
       </c>
       <c r="B75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>samantha.attwell</t>
+          <t>franzi.fsh</t>
         </is>
       </c>
       <c r="B76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>jennahanlon_</t>
+          <t>paytonpalcisko</t>
         </is>
       </c>
       <c r="B77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ryh_1533</t>
+          <t>jakehonl</t>
         </is>
       </c>
       <c r="B78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>mayadesilva4</t>
+          <t>nicolegrimes_</t>
         </is>
       </c>
       <c r="B79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ava_sadkin</t>
+          <t>_audreycline</t>
         </is>
       </c>
       <c r="B80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>chloe.sibert</t>
+          <t>alexbelsky_</t>
         </is>
       </c>
       <c r="B81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>rshah_09</t>
+          <t>gabby.holtz</t>
         </is>
       </c>
       <c r="B82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>raul.gxrcia</t>
+          <t>rajeev_i5</t>
         </is>
       </c>
       <c r="B83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>alayna_lemon</t>
+          <t>audyhardis</t>
         </is>
       </c>
       <c r="B84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>logantmann</t>
+          <t>stephaniesosko_</t>
         </is>
       </c>
       <c r="B85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>shreya_rathi_05</t>
+          <t>ryan.goldfarb</t>
         </is>
       </c>
       <c r="B86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>emmanordquist_</t>
+          <t>gracevshep</t>
         </is>
       </c>
       <c r="B87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>bella.v.5</t>
+          <t>z0esc0tt</t>
         </is>
       </c>
       <c r="B88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>nalini.i_</t>
+          <t>zachjensch</t>
         </is>
       </c>
       <c r="B89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>zgar1</t>
+          <t>brayden.mobley</t>
         </is>
       </c>
       <c r="B90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>lucia.mastroanni</t>
+          <t>juliananoelle_</t>
         </is>
       </c>
       <c r="B91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>suziq0915</t>
+          <t>angiea262</t>
         </is>
       </c>
       <c r="B92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>donovan_hackett</t>
+          <t>corsinardello_</t>
         </is>
       </c>
       <c r="B93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>carlyillos</t>
+          <t>ameliamclaughlin_</t>
         </is>
       </c>
       <c r="B94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>maddie_riga</t>
+          <t>ridhipatel02</t>
         </is>
       </c>
       <c r="B95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>brayden.mobley</t>
+          <t>_jesscoffey</t>
         </is>
       </c>
       <c r="B96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>joey_mace</t>
+          <t>andrewpaulson_</t>
         </is>
       </c>
       <c r="B97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>_jesscoffey</t>
+          <t>k.pirone</t>
         </is>
       </c>
       <c r="B98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>lilatye</t>
+          <t>_alyssamerkle_</t>
         </is>
       </c>
       <c r="B99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>cecepaglia</t>
+          <t>ashvin_raj25</t>
         </is>
       </c>
       <c r="B100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>isley_marie</t>
+          <t>nick.biega</t>
         </is>
       </c>
       <c r="B101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>alliemuseles</t>
+          <t>saharsh_thummala</t>
         </is>
       </c>
       <c r="B102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>osutransfer23</t>
+          <t>cdelongg</t>
         </is>
       </c>
       <c r="B103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>oakesadkins</t>
+          <t>rachel.turnerrr</t>
         </is>
       </c>
       <c r="B104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>chase__herrell</t>
+          <t>francescarreyes</t>
         </is>
       </c>
       <c r="B105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>mayazoretich_</t>
+          <t>_heather.lynn__</t>
         </is>
       </c>
       <c r="B106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>marypapova_</t>
+          <t>avnimpatel</t>
         </is>
       </c>
       <c r="B107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>avahuttmann</t>
+          <t>adricpirinelli</t>
         </is>
       </c>
       <c r="B108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>emilyrabinn</t>
+          <t>emilygfrantz</t>
         </is>
       </c>
       <c r="B109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>llauren.jimenez</t>
+          <t>joshua.clemons5</t>
         </is>
       </c>
       <c r="B110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>macyjankowskii</t>
+          <t>charfriedman</t>
         </is>
       </c>
       <c r="B111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>daniiweiss</t>
+          <t>jeremy.abdelmalak</t>
         </is>
       </c>
       <c r="B112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>kendallschissler</t>
+          <t>srig05</t>
         </is>
       </c>
       <c r="B113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>audrey_withrow</t>
+          <t>madelynhann</t>
         </is>
       </c>
       <c r="B114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>janiraelise</t>
+          <t>willtford</t>
         </is>
       </c>
       <c r="B115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>nickreeder10</t>
+          <t>_iidrew_</t>
         </is>
       </c>
       <c r="B116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>riya.pradhan3</t>
+          <t>erinaharrison_</t>
         </is>
       </c>
       <c r="B117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>itztori101</t>
+          <t>ryan.geiger8</t>
         </is>
       </c>
       <c r="B118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>dinaalazaridis</t>
+          <t>erin.rohlik</t>
         </is>
       </c>
       <c r="B119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>parth.ankolikar</t>
+          <t>jademorse__</t>
         </is>
       </c>
       <c r="B120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>er1ka._</t>
+          <t>dylan_stein2</t>
         </is>
       </c>
       <c r="B121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>laura.felderean</t>
+          <t>danielpetrowskyy</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>katedicapua</t>
+          <t>hunter._.stimac</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>olivia.g.23</t>
+          <t>dixonjayla05</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>marissa_shell</t>
+          <t>itstryphenaa</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ca.rlii</t>
+          <t>oliviaa_bertolini</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>mjbanks41</t>
+          <t>_margotpaul</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>rachelmahalaris</t>
+          <t>alexwojtus</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>luisotarola.1</t>
+          <t>tima121214</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>fatousgueye</t>
+          <t>shayverma_9</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>delaneyodear</t>
+          <t>abbyorazen</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>abbey.kash</t>
+          <t>avawolfe_</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>therealgses</t>
+          <t>mayazaveduk</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>julia._howell</t>
+          <t>grantthieding</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>fernando_reich</t>
+          <t>allieb125</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>kanishathambyrajah</t>
+          <t>avacarrow</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>tburkx</t>
+          <t>mbegehr</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ivymiller913</t>
+          <t>jessica05_m</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>akuaa_.a</t>
+          <t>anikadhingra_</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>stro.mel</t>
+          <t>virginialindvall</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>piper_holmes</t>
+          <t>csharp_1027</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>__matthewanthony__</t>
+          <t>greg_ross1</t>
         </is>
       </c>
       <c r="B142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>_justmiriam</t>
+          <t>bisno__</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>kamsgopal</t>
+          <t>matthewmazzaro</t>
         </is>
       </c>
       <c r="B144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>stephanie_sharp_tefi</t>
+          <t>yonathan.dagan</t>
         </is>
       </c>
       <c r="B145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>reese_hearon8</t>
+          <t>rubymanthe</t>
         </is>
       </c>
       <c r="B146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>dixonjayla05</t>
+          <t>deesh.dlm</t>
         </is>
       </c>
       <c r="B147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>kukreja_a33</t>
+          <t>liamtaliano</t>
         </is>
       </c>
       <c r="B148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>astha.patel02</t>
+          <t>katiecosentino</t>
         </is>
       </c>
       <c r="B149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>jadaramoss</t>
+          <t>jack_nadal_</t>
         </is>
       </c>
       <c r="B150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>taraamccusker</t>
+          <t>annakhuri</t>
         </is>
       </c>
       <c r="B151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>samihess_</t>
+          <t>sophia.randazza</t>
         </is>
       </c>
       <c r="B152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>suhaniriarao</t>
+          <t>abby.paxton_</t>
         </is>
       </c>
       <c r="B153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>mo_ni.so_la</t>
+          <t>isabelle.alarcon</t>
         </is>
       </c>
       <c r="B154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>bgally_19</t>
+          <t>rishi_dhaya</t>
         </is>
       </c>
       <c r="B155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>beth_kokel23</t>
+          <t>liamstpierre_</t>
         </is>
       </c>
       <c r="B156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>yonathan.dagan</t>
+          <t>margaretdonnelly_</t>
         </is>
       </c>
       <c r="B157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>_laurenmcgraw_</t>
+          <t>delaney_oshea55</t>
         </is>
       </c>
       <c r="B158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>hridhay_v</t>
+          <t>ryan.sowavyy</t>
         </is>
       </c>
       <c r="B159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>beetle8ug</t>
+          <t>luvjenniferr</t>
         </is>
       </c>
       <c r="B160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>gabbylacerenza</t>
+          <t>vaniii.3</t>
         </is>
       </c>
       <c r="B161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>eli_caldwell05</t>
+          <t>taylorsilver16</t>
         </is>
       </c>
       <c r="B162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>zstrollo_</t>
+          <t>andrepoggio</t>
         </is>
       </c>
       <c r="B163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>jacobdulski</t>
+          <t>kenzie.copenhaver</t>
         </is>
       </c>
       <c r="B164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>gaby_lopez2305</t>
+          <t>sophiaa.stepp</t>
         </is>
       </c>
       <c r="B165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>kelly.mcfaddden</t>
+          <t>addisoncrocker_</t>
         </is>
       </c>
       <c r="B166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>demoss.katherine05</t>
+          <t>jenna_mcelvogue</t>
         </is>
       </c>
       <c r="B167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>benhopple</t>
+          <t>kameron_washington</t>
         </is>
       </c>
       <c r="B168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>lillyweber_</t>
+          <t>ethan.le59</t>
         </is>
       </c>
       <c r="B169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>jwl.png</t>
+          <t>jacobdulski</t>
         </is>
       </c>
       <c r="B170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>hopetamoney</t>
+          <t>varshini.kashyap</t>
         </is>
       </c>
       <c r="B171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>victorialee.12</t>
+          <t>_avafriedman</t>
         </is>
       </c>
       <c r="B172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>aaronegolf</t>
+          <t>ethandetrick_</t>
         </is>
       </c>
       <c r="B173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ayjonathann</t>
+          <t>macyheinee</t>
         </is>
       </c>
       <c r="B174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>milesbala</t>
+          <t>annashaheen</t>
         </is>
       </c>
       <c r="B175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>emma.lafollette</t>
+          <t>charles_civiletto</t>
         </is>
       </c>
       <c r="B176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>madison_kirschner</t>
+          <t>fatima.haque6069</t>
         </is>
       </c>
       <c r="B177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>tyler.meader</t>
+          <t>sophie.piper2</t>
         </is>
       </c>
       <c r="B178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>pietmush_</t>
+          <t>juliadarr_</t>
         </is>
       </c>
       <c r="B179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>krishang_mody22</t>
+          <t>ryan.gramza</t>
         </is>
       </c>
       <c r="B180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>alliestrosnider</t>
+          <t>aeris.mcdaniel</t>
         </is>
       </c>
       <c r="B181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>karnatigagan</t>
+          <t>donovan_hackett</t>
         </is>
       </c>
       <c r="B182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>alanjames543</t>
+          <t>rachelmahalaris</t>
         </is>
       </c>
       <c r="B183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>alyssa.plooks</t>
+          <t>liv.willig</t>
         </is>
       </c>
       <c r="B184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>michael__greulich</t>
+          <t>alayna_lemon</t>
         </is>
       </c>
       <c r="B185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ajorr10</t>
+          <t>ayushiii.patelll</t>
         </is>
       </c>
       <c r="B186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>audyhardis</t>
+          <t>beetle8ug</t>
         </is>
       </c>
       <c r="B187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>annakhuri</t>
+          <t>lexieschwabe</t>
         </is>
       </c>
       <c r="B188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>calebdacruz</t>
+          <t>jenna.cyr</t>
         </is>
       </c>
       <c r="B189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>taylorjacobson04</t>
+          <t>jackson_hopkins23</t>
         </is>
       </c>
       <c r="B190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>imagine.recreation_blahstew</t>
+          <t>thompson.marissa</t>
         </is>
       </c>
       <c r="B191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>rtravers32</t>
+          <t>marina.diponio</t>
         </is>
       </c>
       <c r="B192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ross_da_3rd</t>
+          <t>londonmichel4</t>
         </is>
       </c>
       <c r="B193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>lorelei.roeger</t>
+          <t>ellie.binger</t>
         </is>
       </c>
       <c r="B194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>soph_cassidy</t>
+          <t>__elana__</t>
         </is>
       </c>
       <c r="B195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>kareena.mehra</t>
+          <t>bellawelker_</t>
         </is>
       </c>
       <c r="B196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ashlynnhanlin</t>
+          <t>sofiapalek</t>
         </is>
       </c>
       <c r="B197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>elise__hess</t>
+          <t>hillaryesper_</t>
         </is>
       </c>
       <c r="B198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>drmelaragno</t>
+          <t>josh_eyerman</t>
         </is>
       </c>
       <c r="B199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>prinxess._.mari</t>
+          <t>jace.stimp</t>
         </is>
       </c>
       <c r="B200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>emilygfrantz</t>
+          <t>jessjilek</t>
         </is>
       </c>
       <c r="B201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>monaa_gopinath</t>
+          <t>frannystoffel</t>
         </is>
       </c>
       <c r="B202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>natalie.digiacomo</t>
+          <t>evankneer</t>
         </is>
       </c>
       <c r="B203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>walz_alexis</t>
+          <t>matt.v417</t>
         </is>
       </c>
       <c r="B204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>greg_ross1</t>
+          <t>allyydavidd</t>
         </is>
       </c>
       <c r="B205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>karthik_kallam</t>
+          <t>colson.bunch</t>
         </is>
       </c>
       <c r="B206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>evaagibsonn</t>
+          <t>julia._raye</t>
         </is>
       </c>
       <c r="B207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>aricathies</t>
+          <t>kkaseymill</t>
         </is>
       </c>
       <c r="B208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>jennatimko</t>
+          <t>cassidychenelle_</t>
         </is>
       </c>
       <c r="B209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>tjbrunner19</t>
+          <t>biancaglavicic</t>
         </is>
       </c>
       <c r="B210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>dex.ertell</t>
+          <t>caden_philloops</t>
         </is>
       </c>
       <c r="B211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>em.lear</t>
+          <t>ryder_p75</t>
         </is>
       </c>
       <c r="B212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>anastasia.zambidis</t>
+          <t>megannward_</t>
         </is>
       </c>
       <c r="B213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>alliegribben</t>
+          <t>kvak.andrew</t>
         </is>
       </c>
       <c r="B214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>frannystoffel</t>
+          <t>brigitte.priel</t>
         </is>
       </c>
       <c r="B215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>a_will2005</t>
+          <t>jordanfiderer</t>
         </is>
       </c>
       <c r="B216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>nerimangoksuu</t>
+          <t>malaree.chanel</t>
         </is>
       </c>
       <c r="B217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>lyla.glinski</t>
+          <t>jameskosmides_</t>
         </is>
       </c>
       <c r="B218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>guy_levi_7</t>
+          <t>chloeshafir</t>
         </is>
       </c>
       <c r="B219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>_iidrew_</t>
+          <t>samsettell</t>
         </is>
       </c>
       <c r="B220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>szilviawiksell</t>
+          <t>fatousgueye</t>
         </is>
       </c>
       <c r="B221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>lily.andrews5</t>
+          <t>em.lear</t>
         </is>
       </c>
       <c r="B222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>leah.n7</t>
+          <t>stro.mel</t>
         </is>
       </c>
       <c r="B223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>jessica05_m</t>
+          <t>hot.pot.l</t>
         </is>
       </c>
       <c r="B224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>fatima.haque6069</t>
+          <t>kesean2x</t>
         </is>
       </c>
       <c r="B225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>avacarrow</t>
+          <t>olivia.oiler</t>
         </is>
       </c>
       <c r="B226" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>_p.einda</t>
+          <t>abinoorkaurr</t>
         </is>
       </c>
       <c r="B227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>savas.sydney</t>
+          <t>cooper.koch04</t>
         </is>
       </c>
       <c r="B228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>joe.waxman</t>
+          <t>emilyclark1704</t>
         </is>
       </c>
       <c r="B229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>norajarman</t>
+          <t>leah.n7</t>
         </is>
       </c>
       <c r="B230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>tonystabile17</t>
+          <t>alex.duda1</t>
         </is>
       </c>
       <c r="B231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>caroline_berryman</t>
+          <t>chaase.obrien</t>
         </is>
       </c>
       <c r="B232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>addy.frohne</t>
+          <t>juliakucaric</t>
         </is>
       </c>
       <c r="B233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>ellamohler</t>
+          <t>dariyadestinee</t>
         </is>
       </c>
       <c r="B234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>angiea262</t>
+          <t>sar._.liuu</t>
         </is>
       </c>
       <c r="B235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>brian_rieth</t>
+          <t>aydenjsanford</t>
         </is>
       </c>
       <c r="B236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>carolinaclark_</t>
+          <t>ryanhodgson_</t>
         </is>
       </c>
       <c r="B237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>thoren_meira</t>
+          <t>mollystamm</t>
         </is>
       </c>
       <c r="B238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>nicolegrimes_</t>
+          <t>bethany_814</t>
         </is>
       </c>
       <c r="B239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>emma_cwhite</t>
+          <t>peyton_bosworth</t>
         </is>
       </c>
       <c r="B240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ronav2002</t>
+          <t>annierotsky</t>
         </is>
       </c>
       <c r="B241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>eddie.leeeee</t>
+          <t>hannahrossinii</t>
         </is>
       </c>
       <c r="B242" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>beatricekuk</t>
+          <t>itssssanks</t>
         </is>
       </c>
       <c r="B243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>maedolann</t>
+          <t>audreyfranzese</t>
         </is>
       </c>
       <c r="B244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>rishikothinti</t>
+          <t>sierrabombik</t>
         </is>
       </c>
       <c r="B245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>sophiesieveking</t>
+          <t>anvibhavanam</t>
         </is>
       </c>
       <c r="B246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>x.vanessag</t>
+          <t>camdyngoodknight</t>
         </is>
       </c>
       <c r="B247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>esha_bekkam</t>
+          <t>colinsandfoss</t>
         </is>
       </c>
       <c r="B248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>lbilek_51</t>
+          <t>andie_smithson</t>
         </is>
       </c>
       <c r="B249" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>natalie.booskila</t>
+          <t>vanna.kae</t>
         </is>
       </c>
       <c r="B250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>emma.gach17</t>
+          <t>delaneyodear</t>
         </is>
       </c>
       <c r="B251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>jaysonfronk</t>
+          <t>ethanfaber2</t>
         </is>
       </c>
       <c r="B252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>dhrutii.shah</t>
+          <t>alyssa.manas</t>
         </is>
       </c>
       <c r="B253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>jada_mylah</t>
+          <t>elisabeth_fry</t>
         </is>
       </c>
       <c r="B254" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>____.viktoria</t>
+          <t>natalie.digiacomo</t>
         </is>
       </c>
       <c r="B255" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>foreign.no</t>
+          <t>jonahbukovac</t>
         </is>
       </c>
       <c r="B256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>vasile_matzorkis</t>
+          <t>fernando_reich</t>
         </is>
       </c>
       <c r="B257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>mia_robillard</t>
+          <t>gabby.525</t>
         </is>
       </c>
       <c r="B258" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>evanmill19</t>
+          <t>michaelkeselman</t>
         </is>
       </c>
       <c r="B259" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>clarissa.le</t>
+          <t>guhansolo</t>
         </is>
       </c>
       <c r="B260" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>matthewjackson.23</t>
+          <t>joe.waxman</t>
         </is>
       </c>
       <c r="B261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>macy_mayer10</t>
+          <t>nicklucci0</t>
         </is>
       </c>
       <c r="B262" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ampadilla05</t>
+          <t>sydney.dennison</t>
         </is>
       </c>
       <c r="B263" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>meganwardddd</t>
+          <t>elledoff_</t>
         </is>
       </c>
       <c r="B264" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>natalirice</t>
+          <t>jennakopyar</t>
         </is>
       </c>
       <c r="B265" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>solomon_sanders24</t>
+          <t>eli.labbe</t>
         </is>
       </c>
       <c r="B266" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>makenna.lottig</t>
+          <t>guy_levi_7</t>
         </is>
       </c>
       <c r="B267" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>vikramkannan_</t>
+          <t>adrine.mason</t>
         </is>
       </c>
       <c r="B268" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>ella_dicola</t>
+          <t>cambry.cox</t>
         </is>
       </c>
       <c r="B269" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>bradan_schnabel</t>
+          <t>madison.nycole28</t>
         </is>
       </c>
       <c r="B270" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>maddymccuen_</t>
+          <t>jonas.honeycutt</t>
         </is>
       </c>
       <c r="B271" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>londonmichel4</t>
+          <t>supaashszn</t>
         </is>
       </c>
       <c r="B272" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>jennasutton.4</t>
+          <t>jkulig16</t>
         </is>
       </c>
       <c r="B273" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>alana.ionno23</t>
+          <t>chloe.witman</t>
         </is>
       </c>
       <c r="B274" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>tt_liyahh</t>
+          <t>gannon.l</t>
         </is>
       </c>
       <c r="B275" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>kendall.pace</t>
+          <t>madisonnjjoness</t>
         </is>
       </c>
       <c r="B276" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>virginialindvall</t>
+          <t>nlandskroener22</t>
         </is>
       </c>
       <c r="B277" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>melissapanin</t>
+          <t>ashleyyy.xii</t>
         </is>
       </c>
       <c r="B278" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>samara.buchanan</t>
+          <t>_logan_dyer_</t>
         </is>
       </c>
       <c r="B279" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>_rithvik.gowda_</t>
+          <t>kannekanti.satvik</t>
         </is>
       </c>
       <c r="B280" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>eddie.kuper</t>
+          <t>hamzabadawi0</t>
         </is>
       </c>
       <c r="B281" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>yananparker</t>
+          <t>bclarke_9</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>sydney.marie89</t>
+          <t>halcy.russell</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>emilydooling</t>
+          <t>albertanomo_</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>mjade.__</t>
+          <t>olivia_rinaldi</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>jonmlawski</t>
+          <t>harikesh_sivam</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>skysthelimit77</t>
+          <t>megannashed</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>ari_17381</t>
+          <t>kindall_michelle</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>cordee_j</t>
+          <t>chasecrawford05</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>jessbussanich</t>
+          <t>emamiannaleila</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>tyler_beckman_</t>
+          <t>christina.ddole</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>parkerkelley8</t>
+          <t>mia.divenere</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>rylynickes</t>
+          <t>bwhitt.21</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>erin.rohlik</t>
+          <t>emmaa.crabtree</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>joelle.oliviaaa</t>
+          <t>j_leib2</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>emmasmeader</t>
+          <t>carolinekronenfeld</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>lydiakefalas</t>
+          <t>abuchen54</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>lexie.shugarts</t>
+          <t>tyler_beckman_</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>cbshoe5</t>
+          <t>karnatigagan</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>christinaliccardi11</t>
+          <t>jackkriser</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>cristinaalessandralopez</t>
+          <t>_krisalynj</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>abraham.yoon</t>
+          <t>gr4cebowen</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>lilyhyman</t>
+          <t>evanmill19</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>lucyli_107</t>
+          <t>annie.melaragno24</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>jo.terryy04</t>
+          <t>victorialee.12</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>emmaemills</t>
+          <t>isley_marie</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>tarini_gowda</t>
+          <t>jojojan_214</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>ridhipatel02</t>
+          <t>oakesadkins</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>josh.lampa</t>
+          <t>stevennadal_</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>supaashszn</t>
+          <t>ava.hernandez9</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>jojojan_214</t>
+          <t>fayeaboshahba</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>nikolas.neos</t>
+          <t>alliemuseles</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>bclarke_9</t>
+          <t>riya.pradhan3</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>adaly_3</t>
+          <t>hi.itsmads</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>meg_agerton</t>
+          <t>itztori101</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>_lilian_villegas_</t>
+          <t>_sophielemond</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>evelyn.miller_</t>
+          <t>e_moo.re</t>
         </is>
       </c>
       <c r="B317" t="b">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>autumnumphress</t>
+          <t>sophianwagner</t>
         </is>
       </c>
       <c r="B318" t="b">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>jolina_jimenez</t>
+          <t>sarahkavanaggh</t>
         </is>
       </c>
       <c r="B319" t="b">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>kayyladevore</t>
+          <t>drew_m513</t>
         </is>
       </c>
       <c r="B320" t="b">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>sophiatshaw</t>
+          <t>katie.cavanaugh_</t>
         </is>
       </c>
       <c r="B321" t="b">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>_amandachristner</t>
+          <t>lamisarkhan</t>
         </is>
       </c>
       <c r="B322" t="b">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>jenna.cyr</t>
+          <t>lydiakefalas</t>
         </is>
       </c>
       <c r="B323" t="b">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>_emilyjcopeland_</t>
+          <t>teresaachkar</t>
         </is>
       </c>
       <c r="B324" t="b">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>graypage16</t>
+          <t>abbie.bell_</t>
         </is>
       </c>
       <c r="B325" t="b">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>olivia_rinaldi</t>
+          <t>gabe.tangeman</t>
         </is>
       </c>
       <c r="B326" t="b">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>theohiostateconfessions</t>
+          <t>brenna.henry_8</t>
         </is>
       </c>
       <c r="B327" t="b">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>alexwojtus</t>
+          <t>julsfortner</t>
         </is>
       </c>
       <c r="B328" t="b">
@@ -3718,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>jadevhooper</t>
+          <t>isabellam_04</t>
         </is>
       </c>
       <c r="B329" t="b">
@@ -3728,7 +3728,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>ella.silvis</t>
+          <t>evaneichel7</t>
         </is>
       </c>
       <c r="B330" t="b">
@@ -3738,7 +3738,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>fayeaboshahba</t>
+          <t>kaliiwells</t>
         </is>
       </c>
       <c r="B331" t="b">
@@ -3748,7 +3748,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>jameskatrakazos</t>
+          <t>taylorjacobson04</t>
         </is>
       </c>
       <c r="B332" t="b">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>dahi______</t>
+          <t>annika_padhye</t>
         </is>
       </c>
       <c r="B333" t="b">
@@ -3768,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>jack.cleary03</t>
+          <t>hrushi_m23</t>
         </is>
       </c>
       <c r="B334" t="b">
@@ -3778,7 +3778,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>luluindeni</t>
+          <t>meg_agerton</t>
         </is>
       </c>
       <c r="B335" t="b">
@@ -3788,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>katelynn_lynch_</t>
+          <t>kaylachang_</t>
         </is>
       </c>
       <c r="B336" t="b">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>rookie_akshansh</t>
+          <t>anastasia.zambidis</t>
         </is>
       </c>
       <c r="B337" t="b">
@@ -3808,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>patricia.zoller</t>
+          <t>lillibowen</t>
         </is>
       </c>
       <c r="B338" t="b">
@@ -3818,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>spencer_pirie</t>
+          <t>haddeneliz</t>
         </is>
       </c>
       <c r="B339" t="b">
@@ -3828,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>lauren.dondeena</t>
+          <t>jasmineealyson_</t>
         </is>
       </c>
       <c r="B340" t="b">
@@ -3838,7 +3838,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>deesh.dlm</t>
+          <t>paultilyou22</t>
         </is>
       </c>
       <c r="B341" t="b">
@@ -3848,7 +3848,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>brett_christopher</t>
+          <t>jake.johnson05</t>
         </is>
       </c>
       <c r="B342" t="b">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>harkerlecroy</t>
+          <t>alliegribben</t>
         </is>
       </c>
       <c r="B343" t="b">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>laneymarcum</t>
+          <t>tonystabile17</t>
         </is>
       </c>
       <c r="B344" t="b">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>mollystamm</t>
+          <t>lyla.glinski</t>
         </is>
       </c>
       <c r="B345" t="b">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>nashtrattner</t>
+          <t>magdalena.frelek</t>
         </is>
       </c>
       <c r="B346" t="b">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>ryanmatthews959</t>
+          <t>ksandborn24</t>
         </is>
       </c>
       <c r="B347" t="b">
@@ -3908,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>gracerana_</t>
+          <t>ryanhussey_</t>
         </is>
       </c>
       <c r="B348" t="b">
@@ -3918,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>sophie.gustafson_</t>
+          <t>savannah_sipp</t>
         </is>
       </c>
       <c r="B349" t="b">
@@ -3928,7 +3928,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>zachjensch</t>
+          <t>ellamohler</t>
         </is>
       </c>
       <c r="B350" t="b">
@@ -3938,7 +3938,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>araffin4</t>
+          <t>olivia_rittenhouse_</t>
         </is>
       </c>
       <c r="B351" t="b">
@@ -3948,7 +3948,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>cara.murphyy</t>
+          <t>meghan.oreos</t>
         </is>
       </c>
       <c r="B352" t="b">
@@ -3958,7 +3958,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ethanfaber2</t>
+          <t>caroline_berryman</t>
         </is>
       </c>
       <c r="B353" t="b">
@@ -3968,7 +3968,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>sophia.randazza</t>
+          <t>ava_foor</t>
         </is>
       </c>
       <c r="B354" t="b">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>duttaadrik</t>
+          <t>vicky_strom_</t>
         </is>
       </c>
       <c r="B355" t="b">
@@ -3988,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>rayna_k_</t>
+          <t>richelleritchieee</t>
         </is>
       </c>
       <c r="B356" t="b">
@@ -3998,7 +3998,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>lilfuerst</t>
+          <t>riley.helbig</t>
         </is>
       </c>
       <c r="B357" t="b">
@@ -4008,7 +4008,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>abhishekghosh_30</t>
+          <t>isagosser</t>
         </is>
       </c>
       <c r="B358" t="b">
@@ -4018,7 +4018,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>gavinb0510</t>
+          <t>jonathanmrawlings</t>
         </is>
       </c>
       <c r="B359" t="b">
@@ -4028,7 +4028,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>jenna.ann.hart</t>
+          <t>juliannecrutchfield</t>
         </is>
       </c>
       <c r="B360" t="b">
@@ -4038,7 +4038,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>may_040_</t>
+          <t>owenjohnson22</t>
         </is>
       </c>
       <c r="B361" t="b">
@@ -4048,7 +4048,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>lakshmi.avanthsa</t>
+          <t>lauren1ambert</t>
         </is>
       </c>
       <c r="B362" t="b">
@@ -4058,7 +4058,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>madison.nycole28</t>
+          <t>emilyvonkrosigk</t>
         </is>
       </c>
       <c r="B363" t="b">
@@ -4068,7 +4068,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>meghan.oreos</t>
+          <t>katie.hymel</t>
         </is>
       </c>
       <c r="B364" t="b">
@@ -4078,7 +4078,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>ritaaaa_921</t>
+          <t>_amandachristner</t>
         </is>
       </c>
       <c r="B365" t="b">
@@ -4088,7 +4088,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>drew_m513</t>
+          <t>leah.riso</t>
         </is>
       </c>
       <c r="B366" t="b">
@@ -4098,7 +4098,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>skylarsmith__</t>
+          <t>adam.m.martin</t>
         </is>
       </c>
       <c r="B367" t="b">
@@ -4108,7 +4108,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>sophie.piper2</t>
+          <t>lukerosenthaal</t>
         </is>
       </c>
       <c r="B368" t="b">
@@ -4118,7 +4118,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>tiago.delia</t>
+          <t>marleyrae0117</t>
         </is>
       </c>
       <c r="B369" t="b">
@@ -4128,7 +4128,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>miravankova</t>
+          <t>sami.steinhauser</t>
         </is>
       </c>
       <c r="B370" t="b">
@@ -4138,7 +4138,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>kannekanti.satvik</t>
+          <t>cecepaglia</t>
         </is>
       </c>
       <c r="B371" t="b">
@@ -4148,7 +4148,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>liv_blaker</t>
+          <t>loganoden_</t>
         </is>
       </c>
       <c r="B372" t="b">
@@ -4158,7 +4158,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>nosrslyitsmaria</t>
+          <t>kayleewray</t>
         </is>
       </c>
       <c r="B373" t="b">
@@ -4168,7 +4168,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>nijal_21</t>
+          <t>joelle.oliviaaa</t>
         </is>
       </c>
       <c r="B374" t="b">
@@ -4178,7 +4178,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>kyaangle</t>
+          <t>devenphilip</t>
         </is>
       </c>
       <c r="B375" t="b">
@@ -4188,7 +4188,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>emilyvonkrosigk</t>
+          <t>karthik_kallam</t>
         </is>
       </c>
       <c r="B376" t="b">
@@ -4198,7 +4198,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>hpie03</t>
+          <t>ellakbowman</t>
         </is>
       </c>
       <c r="B377" t="b">
@@ -4208,7 +4208,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>hannahrossinii</t>
+          <t>giacdente</t>
         </is>
       </c>
       <c r="B378" t="b">
@@ -4218,7 +4218,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>julsfortner</t>
+          <t>3van.jos</t>
         </is>
       </c>
       <c r="B379" t="b">
@@ -4228,7 +4228,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>leximazza</t>
+          <t>miazarroli</t>
         </is>
       </c>
       <c r="B380" t="b">
@@ -4238,7 +4238,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>jeromegoodloe</t>
+          <t>beas.beans</t>
         </is>
       </c>
       <c r="B381" t="b">
@@ -4248,7 +4248,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>ava_foor</t>
+          <t>hannahaheifetz</t>
         </is>
       </c>
       <c r="B382" t="b">
@@ -4258,7 +4258,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>kadencelynnnn</t>
+          <t>zstrollo_</t>
         </is>
       </c>
       <c r="B383" t="b">
@@ -4268,7 +4268,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>michaelwarnement</t>
+          <t>kayyladevore</t>
         </is>
       </c>
       <c r="B384" t="b">
@@ -4278,7 +4278,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>naomi._o3</t>
+          <t>lexismccombs</t>
         </is>
       </c>
       <c r="B385" t="b">
@@ -4288,7 +4288,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>sohinip05</t>
+          <t>ben.stummer</t>
         </is>
       </c>
       <c r="B386" t="b">
@@ -4298,7 +4298,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>giacdente</t>
+          <t>loryn_elsasser</t>
         </is>
       </c>
       <c r="B387" t="b">
@@ -4308,7 +4308,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>thakkar_trisha</t>
+          <t>aakashshxh</t>
         </is>
       </c>
       <c r="B388" t="b">
@@ -4318,7 +4318,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>ianmirowitz_</t>
+          <t>rookie_akshansh</t>
         </is>
       </c>
       <c r="B389" t="b">
@@ -4328,7 +4328,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>jiyapatel0624</t>
+          <t>erik_bratton</t>
         </is>
       </c>
       <c r="B390" t="b">
@@ -4338,7 +4338,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>megandcarm</t>
+          <t>lily.andrews5</t>
         </is>
       </c>
       <c r="B391" t="b">
@@ -4348,7 +4348,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>rylandbordeaux</t>
+          <t>varsh.kas</t>
         </is>
       </c>
       <c r="B392" t="b">
@@ -4358,7 +4358,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>n_miller55</t>
+          <t>shaya_azadi</t>
         </is>
       </c>
       <c r="B393" t="b">
@@ -4368,7 +4368,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>ava.calamante_</t>
+          <t>ellen_babs2</t>
         </is>
       </c>
       <c r="B394" t="b">
@@ -4378,7 +4378,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>abbie.wonnell</t>
+          <t>rshah_09</t>
         </is>
       </c>
       <c r="B395" t="b">
@@ -4388,7 +4388,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>emma_letany</t>
+          <t>isabella_mcconnell</t>
         </is>
       </c>
       <c r="B396" t="b">
@@ -4398,930 +4398,10 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>harrison_blay</t>
+          <t>joslynnelakkatt</t>
         </is>
       </c>
       <c r="B397" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>aayush_paul18</t>
-        </is>
-      </c>
-      <c r="B398" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>armishatif</t>
-        </is>
-      </c>
-      <c r="B399" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>gmmccreary3</t>
-        </is>
-      </c>
-      <c r="B400" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>emilynisker</t>
-        </is>
-      </c>
-      <c r="B401" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>hillaryesper_</t>
-        </is>
-      </c>
-      <c r="B402" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>luvjenniferr</t>
-        </is>
-      </c>
-      <c r="B403" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>david_sedar</t>
-        </is>
-      </c>
-      <c r="B404" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>juliananoelle_</t>
-        </is>
-      </c>
-      <c r="B405" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>mariaamcguire</t>
-        </is>
-      </c>
-      <c r="B406" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>maranetch</t>
-        </is>
-      </c>
-      <c r="B407" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>kennedy.lyy</t>
-        </is>
-      </c>
-      <c r="B408" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>eli.labbe</t>
-        </is>
-      </c>
-      <c r="B409" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>jordanfiderer</t>
-        </is>
-      </c>
-      <c r="B410" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>mia.divenere</t>
-        </is>
-      </c>
-      <c r="B411" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>mberzins05</t>
-        </is>
-      </c>
-      <c r="B412" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>t.neupane04</t>
-        </is>
-      </c>
-      <c r="B413" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>ram.joaquin</t>
-        </is>
-      </c>
-      <c r="B414" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>brendanwat_12</t>
-        </is>
-      </c>
-      <c r="B415" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>katieetoomey</t>
-        </is>
-      </c>
-      <c r="B416" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>miazarroli</t>
-        </is>
-      </c>
-      <c r="B417" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>miashcherbakov</t>
-        </is>
-      </c>
-      <c r="B418" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>giovannifrank33</t>
-        </is>
-      </c>
-      <c r="B419" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>abbylenhard_</t>
-        </is>
-      </c>
-      <c r="B420" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>jack.mcdermott_5</t>
-        </is>
-      </c>
-      <c r="B421" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>ksena.reed</t>
-        </is>
-      </c>
-      <c r="B422" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>annika_padhye</t>
-        </is>
-      </c>
-      <c r="B423" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>francescarreyes</t>
-        </is>
-      </c>
-      <c r="B424" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>vdog1127</t>
-        </is>
-      </c>
-      <c r="B425" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>haley.kyle10</t>
-        </is>
-      </c>
-      <c r="B426" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>jakehonl</t>
-        </is>
-      </c>
-      <c r="B427" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>matthewmazzaro</t>
-        </is>
-      </c>
-      <c r="B428" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>leo.mancini10</t>
-        </is>
-      </c>
-      <c r="B429" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>sarahkavanaggh</t>
-        </is>
-      </c>
-      <c r="B430" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="inlineStr">
-        <is>
-          <t>its_your_girl_shidaa</t>
-        </is>
-      </c>
-      <c r="B431" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="inlineStr">
-        <is>
-          <t>michael.karcz</t>
-        </is>
-      </c>
-      <c r="B432" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="inlineStr">
-        <is>
-          <t>aakashshxh</t>
-        </is>
-      </c>
-      <c r="B433" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="inlineStr">
-        <is>
-          <t>katie.hymel</t>
-        </is>
-      </c>
-      <c r="B434" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="inlineStr">
-        <is>
-          <t>malaree.chanel</t>
-        </is>
-      </c>
-      <c r="B435" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" t="inlineStr">
-        <is>
-          <t>itssssanks</t>
-        </is>
-      </c>
-      <c r="B436" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" t="inlineStr">
-        <is>
-          <t>ellie.binger</t>
-        </is>
-      </c>
-      <c r="B437" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="inlineStr">
-        <is>
-          <t>ellakbowman</t>
-        </is>
-      </c>
-      <c r="B438" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>alexmcnichols</t>
-        </is>
-      </c>
-      <c r="B439" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" t="inlineStr">
-        <is>
-          <t>vicky_strom_</t>
-        </is>
-      </c>
-      <c r="B440" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" t="inlineStr">
-        <is>
-          <t>vigneau77777</t>
-        </is>
-      </c>
-      <c r="B441" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" t="inlineStr">
-        <is>
-          <t>benjamin_spiker27</t>
-        </is>
-      </c>
-      <c r="B442" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>zachary_land</t>
-        </is>
-      </c>
-      <c r="B443" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" t="inlineStr">
-        <is>
-          <t>andrewpaulson_</t>
-        </is>
-      </c>
-      <c r="B444" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" t="inlineStr">
-        <is>
-          <t>shae.grimm</t>
-        </is>
-      </c>
-      <c r="B445" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>chloe.witman</t>
-        </is>
-      </c>
-      <c r="B446" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>madelynhann</t>
-        </is>
-      </c>
-      <c r="B447" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="inlineStr">
-        <is>
-          <t>alex.stitt08</t>
-        </is>
-      </c>
-      <c r="B448" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="inlineStr">
-        <is>
-          <t>laurenmcmahonnn</t>
-        </is>
-      </c>
-      <c r="B449" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="inlineStr">
-        <is>
-          <t>_margotpaul</t>
-        </is>
-      </c>
-      <c r="B450" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="inlineStr">
-        <is>
-          <t>olivia.oiler</t>
-        </is>
-      </c>
-      <c r="B451" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="inlineStr">
-        <is>
-          <t>kaylazetwick</t>
-        </is>
-      </c>
-      <c r="B452" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="inlineStr">
-        <is>
-          <t>zgrubens3511</t>
-        </is>
-      </c>
-      <c r="B453" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="inlineStr">
-        <is>
-          <t>averytillman3</t>
-        </is>
-      </c>
-      <c r="B454" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="inlineStr">
-        <is>
-          <t>paytonmacesich</t>
-        </is>
-      </c>
-      <c r="B455" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="inlineStr">
-        <is>
-          <t>taylorrskyess</t>
-        </is>
-      </c>
-      <c r="B456" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="inlineStr">
-        <is>
-          <t>anneliselinhelwig</t>
-        </is>
-      </c>
-      <c r="B457" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="inlineStr">
-        <is>
-          <t>hi.itsmads</t>
-        </is>
-      </c>
-      <c r="B458" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="inlineStr">
-        <is>
-          <t>anuragkej</t>
-        </is>
-      </c>
-      <c r="B459" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="inlineStr">
-        <is>
-          <t>mjones.05</t>
-        </is>
-      </c>
-      <c r="B460" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="inlineStr">
-        <is>
-          <t>emily.wilson.23</t>
-        </is>
-      </c>
-      <c r="B461" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="inlineStr">
-        <is>
-          <t>tri.halilif</t>
-        </is>
-      </c>
-      <c r="B462" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="inlineStr">
-        <is>
-          <t>joe_bungus_</t>
-        </is>
-      </c>
-      <c r="B463" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="inlineStr">
-        <is>
-          <t>jamessutherland04</t>
-        </is>
-      </c>
-      <c r="B464" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="inlineStr">
-        <is>
-          <t>hunter._.stimac</t>
-        </is>
-      </c>
-      <c r="B465" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="inlineStr">
-        <is>
-          <t>ctripp04</t>
-        </is>
-      </c>
-      <c r="B466" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="inlineStr">
-        <is>
-          <t>sophianwagner</t>
-        </is>
-      </c>
-      <c r="B467" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" t="inlineStr">
-        <is>
-          <t>heldanadesta</t>
-        </is>
-      </c>
-      <c r="B468" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="inlineStr">
-        <is>
-          <t>_zoeyhill_</t>
-        </is>
-      </c>
-      <c r="B469" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="inlineStr">
-        <is>
-          <t>noah_halle_</t>
-        </is>
-      </c>
-      <c r="B470" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="inlineStr">
-        <is>
-          <t>ballnuel</t>
-        </is>
-      </c>
-      <c r="B471" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="inlineStr">
-        <is>
-          <t>annierotsky</t>
-        </is>
-      </c>
-      <c r="B472" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="inlineStr">
-        <is>
-          <t>__elana__</t>
-        </is>
-      </c>
-      <c r="B473" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>therealdaddydev</t>
-        </is>
-      </c>
-      <c r="B474" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>melissasmialek</t>
-        </is>
-      </c>
-      <c r="B475" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>_z.o.e.42</t>
-        </is>
-      </c>
-      <c r="B476" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>_ashisgod</t>
-        </is>
-      </c>
-      <c r="B477" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>shravan_nataraj</t>
-        </is>
-      </c>
-      <c r="B478" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>vineethdondapati</t>
-        </is>
-      </c>
-      <c r="B479" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>jkulig16</t>
-        </is>
-      </c>
-      <c r="B480" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>mela9_menace</t>
-        </is>
-      </c>
-      <c r="B481" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="inlineStr">
-        <is>
-          <t>shri_karthikeyan</t>
-        </is>
-      </c>
-      <c r="B482" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="inlineStr">
-        <is>
-          <t>jademorse__</t>
-        </is>
-      </c>
-      <c r="B483" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="inlineStr">
-        <is>
-          <t>annashaheen</t>
-        </is>
-      </c>
-      <c r="B484" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>hrushi_m23</t>
-        </is>
-      </c>
-      <c r="B485" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>shayan.m02</t>
-        </is>
-      </c>
-      <c r="B486" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>macyheinee</t>
-        </is>
-      </c>
-      <c r="B487" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>marissa_garcia05</t>
-        </is>
-      </c>
-      <c r="B488" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="inlineStr">
-        <is>
-          <t>cameron_weir_04</t>
-        </is>
-      </c>
-      <c r="B489" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Marketing/osu.roomme.xlsx
+++ b/Marketing/osu.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B397"/>
+  <dimension ref="A1:B513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>vigneau77777</t>
+          <t>ava_foor</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>aayush_paul18</t>
+          <t>jackiereardon_</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>beccaajenny</t>
+          <t>matthewjackson.23</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>abbey.kash</t>
+          <t>vdog1127</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ayjonathann</t>
+          <t>deesh.dlm</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>dylancrowe16</t>
+          <t>jo.terryy04</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>alliestrosnider</t>
+          <t>itssssanks</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>emmalove313_</t>
+          <t>chim.onyia</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>_tessathomas_</t>
+          <t>cassidychenelle_</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>kukreja_a33</t>
+          <t>elayna.weber</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>sanjitr11</t>
+          <t>isabel.g0nzalez</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>madison_kirschner</t>
+          <t>jacob.parzych26</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>rchou1018</t>
+          <t>danielpetrowskyy</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>_ashisgod</t>
+          <t>lol.nallely</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>marissa_shell</t>
+          <t>sam.holtel</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>sachichhibbes212</t>
+          <t>jm_chay012</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>maddie_riga</t>
+          <t>kanishathambyrajah</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>emmagoodingg</t>
+          <t>aniruddh97654</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>joshkraft_7</t>
+          <t>sophiesieveking</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>matturda7</t>
+          <t>bradan_schnabel</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,1951 +648,1951 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>piper_holmes</t>
+          <t>mia_robillard</t>
         </is>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>puneet.singh13</t>
+          <t>ayushiii.patelll</t>
         </is>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>kyaangle</t>
+          <t>makenzie.mm</t>
         </is>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>joeyglukh</t>
+          <t>meganwardddd</t>
         </is>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ianmirowitz_</t>
+          <t>bella_worley</t>
         </is>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>camii_dan</t>
+          <t>alliestrosnider</t>
         </is>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0in_lucy</t>
+          <t>mayajeras</t>
         </is>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>pietmush_</t>
+          <t>graceminnnn</t>
         </is>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>lillyweber_</t>
+          <t>emma.lafollette</t>
         </is>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>asmoller23</t>
+          <t>osutransfer23</t>
         </is>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>mikey_chaykowski</t>
+          <t>brayden.mobley</t>
         </is>
       </c>
       <c r="B32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>natalieborsch</t>
+          <t>justin_rline18</t>
         </is>
       </c>
       <c r="B33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>alexabeegun</t>
+          <t>charfriedman</t>
         </is>
       </c>
       <c r="B34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>anneliselinhelwig</t>
+          <t>_mack_peterson</t>
         </is>
       </c>
       <c r="B35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>reese.priel</t>
+          <t>haleychreps_7</t>
         </is>
       </c>
       <c r="B36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>jaysonfronk</t>
+          <t>the_nasser10</t>
         </is>
       </c>
       <c r="B37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>livyrose.c</t>
+          <t>riya.205</t>
         </is>
       </c>
       <c r="B38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>taraamccusker</t>
+          <t>_.izzypeacock._</t>
         </is>
       </c>
       <c r="B39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>cplatt004</t>
+          <t>52brennen</t>
         </is>
       </c>
       <c r="B40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>bush.reagan</t>
+          <t>__.demi._____</t>
         </is>
       </c>
       <c r="B41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>nsmith_912</t>
+          <t>esha_bekkam</t>
         </is>
       </c>
       <c r="B42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>tri.halilif</t>
+          <t>ava_koenig</t>
         </is>
       </c>
       <c r="B43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>walteeer20</t>
+          <t>adamblumentha1</t>
         </is>
       </c>
       <c r="B44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>leahjohnstonn_</t>
+          <t>rachelmahalaris</t>
         </is>
       </c>
       <c r="B45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>gaya_bosch</t>
+          <t>ampadilla05</t>
         </is>
       </c>
       <c r="B46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>monaa_gopinath</t>
+          <t>kamsgopal</t>
         </is>
       </c>
       <c r="B47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>gwenreed013</t>
+          <t>allyydavidd</t>
         </is>
       </c>
       <c r="B48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>millenadesta</t>
+          <t>olivia_rittenhouse_</t>
         </is>
       </c>
       <c r="B49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>tylerpliszkaa</t>
+          <t>alliegribben</t>
         </is>
       </c>
       <c r="B50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>mayres_17</t>
+          <t>jun_young27</t>
         </is>
       </c>
       <c r="B51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>aryanbommena</t>
+          <t>angiecash_</t>
         </is>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>nic.digena</t>
+          <t>savas.sydney</t>
         </is>
       </c>
       <c r="B53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>sandheep_r34</t>
+          <t>sanjitr11</t>
         </is>
       </c>
       <c r="B54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>brendanwat_12</t>
+          <t>allisonstrangg</t>
         </is>
       </c>
       <c r="B55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>haleychreps_7</t>
+          <t>joeydaschbach</t>
         </is>
       </c>
       <c r="B56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>grantyes05</t>
+          <t>_biancasako</t>
         </is>
       </c>
       <c r="B57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>laylamouneimne</t>
+          <t>rohan_mawalkar</t>
         </is>
       </c>
       <c r="B58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>oalphonso1</t>
+          <t>katiecosentino</t>
         </is>
       </c>
       <c r="B59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>jazielcortez</t>
+          <t>iya_patel</t>
         </is>
       </c>
       <c r="B60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ellaanderson._</t>
+          <t>jenna_mcelvogue</t>
         </is>
       </c>
       <c r="B61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>sidneyythompson</t>
+          <t>toricriscuolo</t>
         </is>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>_oliviaharden</t>
+          <t>syd._.neye</t>
         </is>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>laura.felderean</t>
+          <t>adricpirinelli</t>
         </is>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>luisotarola.1</t>
+          <t>cade.miller_</t>
         </is>
       </c>
       <c r="B65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>sahana.d_</t>
+          <t>hannahh.mooree</t>
         </is>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ca.rlii</t>
+          <t>gracevshep</t>
         </is>
       </c>
       <c r="B67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>haley.ottman</t>
+          <t>tony.ortiz27</t>
         </is>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ashleyhaveri</t>
+          <t>joey_punisher7</t>
         </is>
       </c>
       <c r="B69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>alyssa.macey</t>
+          <t>_amandachristner</t>
         </is>
       </c>
       <c r="B70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>mya.imbrock</t>
+          <t>lydiakefalas</t>
         </is>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>_dlm23_</t>
+          <t>supaashszn</t>
         </is>
       </c>
       <c r="B72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>anuragkej</t>
+          <t>julia._howell</t>
         </is>
       </c>
       <c r="B73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>reese_hearon8</t>
+          <t>hopetamoney</t>
         </is>
       </c>
       <c r="B74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>kennshamarr._</t>
+          <t>krishang_mody22</t>
         </is>
       </c>
       <c r="B75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>franzi.fsh</t>
+          <t>elsie_estellee</t>
         </is>
       </c>
       <c r="B76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>paytonpalcisko</t>
+          <t>abuchen54</t>
         </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>jakehonl</t>
+          <t>hutsonfrench</t>
         </is>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>nicolegrimes_</t>
+          <t>alliemuseles</t>
         </is>
       </c>
       <c r="B79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>_audreycline</t>
+          <t>nanakojo.kesseh</t>
         </is>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>alexbelsky_</t>
+          <t>lorelei.roeger</t>
         </is>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>gabby.holtz</t>
+          <t>emma.e.irvin</t>
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>rajeev_i5</t>
+          <t>s.sankaran26</t>
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>audyhardis</t>
+          <t>haley.miller04</t>
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>stephaniesosko_</t>
+          <t>aanyatummalapalli</t>
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ryan.goldfarb</t>
+          <t>ethan.le59</t>
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>gracevshep</t>
+          <t>luluindeni</t>
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>z0esc0tt</t>
+          <t>neilreddy8</t>
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>zachjensch</t>
+          <t>shelbysimmonss</t>
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>brayden.mobley</t>
+          <t>allieb125</t>
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>juliananoelle_</t>
+          <t>isabella.gwlo</t>
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>angiea262</t>
+          <t>sahana.d_</t>
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>corsinardello_</t>
+          <t>beccaajenny</t>
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ameliamclaughlin_</t>
+          <t>mahek_shah05</t>
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ridhipatel02</t>
+          <t>anneliselinhelwig</t>
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>_jesscoffey</t>
+          <t>evatomochek</t>
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>andrewpaulson_</t>
+          <t>_zoeyhill_</t>
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>k.pirone</t>
+          <t>evanmill19</t>
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>_alyssamerkle_</t>
+          <t>beth_kokel23</t>
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ashvin_raj25</t>
+          <t>jennasutton.4</t>
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>nick.biega</t>
+          <t>_dlm23_</t>
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>saharsh_thummala</t>
+          <t>mia.divenere</t>
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>cdelongg</t>
+          <t>its.dee.here</t>
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>rachel.turnerrr</t>
+          <t>gr4cebowen</t>
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>francescarreyes</t>
+          <t>yananparker</t>
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>_heather.lynn__</t>
+          <t>marina_pattilio</t>
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>avnimpatel</t>
+          <t>carly.white23</t>
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>adricpirinelli</t>
+          <t>leah.n7</t>
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>emilygfrantz</t>
+          <t>_ashisgod</t>
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>joshua.clemons5</t>
+          <t>a_will2005</t>
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>charfriedman</t>
+          <t>itstryphenaa</t>
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>jeremy.abdelmalak</t>
+          <t>chloe.sibert</t>
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>srig05</t>
+          <t>ellamohler</t>
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>madelynhann</t>
+          <t>dhedler73</t>
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>willtford</t>
+          <t>mbegehr</t>
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>_iidrew_</t>
+          <t>magdalena.frelek</t>
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>erinaharrison_</t>
+          <t>andie_smithson</t>
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ryan.geiger8</t>
+          <t>kvak.andrew</t>
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>erin.rohlik</t>
+          <t>crazykirby23</t>
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>jademorse__</t>
+          <t>rylynickes</t>
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>dylan_stein2</t>
+          <t>sophiaa.stepp</t>
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>danielpetrowskyy</t>
+          <t>ridhipatel02</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>hunter._.stimac</t>
+          <t>adaly_3</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>dixonjayla05</t>
+          <t>tonystabile17</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>itstryphenaa</t>
+          <t>jakehonl</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>oliviaa_bertolini</t>
+          <t>_rithvik.gowda_</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>_margotpaul</t>
+          <t>sydney.marie89</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>alexwojtus</t>
+          <t>tt_liyahh</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>tima121214</t>
+          <t>lucypolen_</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>shayverma_9</t>
+          <t>addy.esslin</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>abbyorazen</t>
+          <t>ash.sequeira</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>avawolfe_</t>
+          <t>hrushi_m23</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>mayazaveduk</t>
+          <t>madison_kirschner</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>grantthieding</t>
+          <t>jeevaasundaraam</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>allieb125</t>
+          <t>_kyndeezal_</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>avacarrow</t>
+          <t>yungeraustyn</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>mbegehr</t>
+          <t>carliaram</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>jessica05_m</t>
+          <t>abbey.kash</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>anikadhingra_</t>
+          <t>gimmykaurr</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>virginialindvall</t>
+          <t>liamtaliano</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>csharp_1027</t>
+          <t>chloecurryyy</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>greg_ross1</t>
+          <t>kayyladevore</t>
         </is>
       </c>
       <c r="B142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>bisno__</t>
+          <t>blanter23</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>matthewmazzaro</t>
+          <t>heffalump0305</t>
         </is>
       </c>
       <c r="B144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>yonathan.dagan</t>
+          <t>clarissa.le</t>
         </is>
       </c>
       <c r="B145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>rubymanthe</t>
+          <t>emmaemills</t>
         </is>
       </c>
       <c r="B146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>deesh.dlm</t>
+          <t>_oliviaharden</t>
         </is>
       </c>
       <c r="B147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>liamtaliano</t>
+          <t>benjamin_spiker27</t>
         </is>
       </c>
       <c r="B148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>katiecosentino</t>
+          <t>ameliamclaughlin_</t>
         </is>
       </c>
       <c r="B149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>jack_nadal_</t>
+          <t>melissapanin</t>
         </is>
       </c>
       <c r="B150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>annakhuri</t>
+          <t>jack.cleary03</t>
         </is>
       </c>
       <c r="B151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>sophia.randazza</t>
+          <t>emma_cwhite</t>
         </is>
       </c>
       <c r="B152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>abby.paxton_</t>
+          <t>marypapova_</t>
         </is>
       </c>
       <c r="B153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>isabelle.alarcon</t>
+          <t>grant.dishong</t>
         </is>
       </c>
       <c r="B154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>rishi_dhaya</t>
+          <t>hannahaheifetz</t>
         </is>
       </c>
       <c r="B155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>liamstpierre_</t>
+          <t>_logan_dyer_</t>
         </is>
       </c>
       <c r="B156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>margaretdonnelly_</t>
+          <t>sidneyythompson</t>
         </is>
       </c>
       <c r="B157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>delaney_oshea55</t>
+          <t>imagine.recreation_blahstew</t>
         </is>
       </c>
       <c r="B158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ryan.sowavyy</t>
+          <t>isley_marie</t>
         </is>
       </c>
       <c r="B159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>luvjenniferr</t>
+          <t>jameskosmides_</t>
         </is>
       </c>
       <c r="B160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>vaniii.3</t>
+          <t>tylerpliszkaa</t>
         </is>
       </c>
       <c r="B161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>taylorsilver16</t>
+          <t>ram.joaquin</t>
         </is>
       </c>
       <c r="B162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>andrepoggio</t>
+          <t>annakhuri</t>
         </is>
       </c>
       <c r="B163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>kenzie.copenhaver</t>
+          <t>llauren.jimenez</t>
         </is>
       </c>
       <c r="B164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>sophiaa.stepp</t>
+          <t>tyler_beckman_</t>
         </is>
       </c>
       <c r="B165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>addisoncrocker_</t>
+          <t>taylorjacobson04</t>
         </is>
       </c>
       <c r="B166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>jenna_mcelvogue</t>
+          <t>victorialee.12</t>
         </is>
       </c>
       <c r="B167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>kameron_washington</t>
+          <t>alyssa.plooks</t>
         </is>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ethan.le59</t>
+          <t>andie.whitman</t>
         </is>
       </c>
       <c r="B169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>jacobdulski</t>
+          <t>emmanordquist_</t>
         </is>
       </c>
       <c r="B170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>varshini.kashyap</t>
+          <t>_iidrew_</t>
         </is>
       </c>
       <c r="B171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>_avafriedman</t>
+          <t>ishan.prabhakar</t>
         </is>
       </c>
       <c r="B172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>ethandetrick_</t>
+          <t>foreign.no</t>
         </is>
       </c>
       <c r="B173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>macyheinee</t>
+          <t>emilydooling</t>
         </is>
       </c>
       <c r="B174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>annashaheen</t>
+          <t>soph_cassidy</t>
         </is>
       </c>
       <c r="B175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>charles_civiletto</t>
+          <t>_dominicbellini</t>
         </is>
       </c>
       <c r="B176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>fatima.haque6069</t>
+          <t>benhopple</t>
         </is>
       </c>
       <c r="B177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>sophie.piper2</t>
+          <t>frannystoffel</t>
         </is>
       </c>
       <c r="B178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>juliadarr_</t>
+          <t>whoskenziewagner</t>
         </is>
       </c>
       <c r="B179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ryan.gramza</t>
+          <t>kyaangle</t>
         </is>
       </c>
       <c r="B180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>aeris.mcdaniel</t>
+          <t>paytonpalcisko</t>
         </is>
       </c>
       <c r="B181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>donovan_hackett</t>
+          <t>roshanmehta23</t>
         </is>
       </c>
       <c r="B182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>rachelmahalaris</t>
+          <t>shreya_rathi_05</t>
         </is>
       </c>
       <c r="B183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>liv.willig</t>
+          <t>elliekennn</t>
         </is>
       </c>
       <c r="B184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>alayna_lemon</t>
+          <t>patricia.zoller</t>
         </is>
       </c>
       <c r="B185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ayushiii.patelll</t>
+          <t>oakesadkins</t>
         </is>
       </c>
       <c r="B186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>beetle8ug</t>
+          <t>akuaa_.a</t>
         </is>
       </c>
       <c r="B187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>lexieschwabe</t>
+          <t>myles_halmond</t>
         </is>
       </c>
       <c r="B188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>jenna.cyr</t>
+          <t>aryanbommena</t>
         </is>
       </c>
       <c r="B189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>jackson_hopkins23</t>
+          <t>oalphonso1</t>
         </is>
       </c>
       <c r="B190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>thompson.marissa</t>
+          <t>anastasia.zambidis</t>
         </is>
       </c>
       <c r="B191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>marina.diponio</t>
+          <t>kyla.altman</t>
         </is>
       </c>
       <c r="B192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>londonmichel4</t>
+          <t>samara.buchanan</t>
         </is>
       </c>
       <c r="B193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ellie.binger</t>
+          <t>ctripp04</t>
         </is>
       </c>
       <c r="B194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>__elana__</t>
+          <t>sierrabombik</t>
         </is>
       </c>
       <c r="B195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>bellawelker_</t>
+          <t>fatousgueye</t>
         </is>
       </c>
       <c r="B196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>sofiapalek</t>
+          <t>jkulig16</t>
         </is>
       </c>
       <c r="B197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>hillaryesper_</t>
+          <t>pretty_sandra_hunt_210</t>
         </is>
       </c>
       <c r="B198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>josh_eyerman</t>
+          <t>asmoller23</t>
         </is>
       </c>
       <c r="B199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>jace.stimp</t>
+          <t>evaconleyyy</t>
         </is>
       </c>
       <c r="B200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>jessjilek</t>
+          <t>maddie_riga</t>
         </is>
       </c>
       <c r="B201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>frannystoffel</t>
+          <t>tristannsanders</t>
         </is>
       </c>
       <c r="B202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>evankneer</t>
+          <t>luke.brogan</t>
         </is>
       </c>
       <c r="B203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>matt.v417</t>
+          <t>jojojan_214</t>
         </is>
       </c>
       <c r="B204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>allyydavidd</t>
+          <t>katlen.t</t>
         </is>
       </c>
       <c r="B205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>colson.bunch</t>
+          <t>shivalrus</t>
         </is>
       </c>
       <c r="B206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>julia._raye</t>
+          <t>maranetch</t>
         </is>
       </c>
       <c r="B207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>kkaseymill</t>
+          <t>michaelkeselman</t>
         </is>
       </c>
       <c r="B208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>cassidychenelle_</t>
+          <t>ariek9605</t>
         </is>
       </c>
       <c r="B209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>biancaglavicic</t>
+          <t>fatima.haque6069</t>
         </is>
       </c>
       <c r="B210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>caden_philloops</t>
+          <t>adi.madhavan</t>
         </is>
       </c>
       <c r="B211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>ryder_p75</t>
+          <t>leahjohnstonn_</t>
         </is>
       </c>
       <c r="B212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>megannward_</t>
+          <t>stephaniesosko_</t>
         </is>
       </c>
       <c r="B213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>kvak.andrew</t>
+          <t>parkerkelley8</t>
         </is>
       </c>
       <c r="B214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>brigitte.priel</t>
+          <t>ella_dicola</t>
         </is>
       </c>
       <c r="B215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>jordanfiderer</t>
+          <t>makenna.lottig</t>
         </is>
       </c>
       <c r="B216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -2602,1807 +2602,2967 @@
         </is>
       </c>
       <c r="B217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>jameskosmides_</t>
+          <t>kenzie.copenhaver</t>
         </is>
       </c>
       <c r="B218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>chloeshafir</t>
+          <t>stevennadal_</t>
         </is>
       </c>
       <c r="B219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>samsettell</t>
+          <t>lillibowen</t>
         </is>
       </c>
       <c r="B220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>fatousgueye</t>
+          <t>ananthmantena</t>
         </is>
       </c>
       <c r="B221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>em.lear</t>
+          <t>danielbruce_</t>
         </is>
       </c>
       <c r="B222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>stro.mel</t>
+          <t>lucy_lysaght</t>
         </is>
       </c>
       <c r="B223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>hot.pot.l</t>
+          <t>donovan_hackett</t>
         </is>
       </c>
       <c r="B224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>kesean2x</t>
+          <t>nicolegrimes_</t>
         </is>
       </c>
       <c r="B225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>olivia.oiler</t>
+          <t>natalie.booskila</t>
         </is>
       </c>
       <c r="B226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>abinoorkaurr</t>
+          <t>july_ky_</t>
         </is>
       </c>
       <c r="B227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>cooper.koch04</t>
+          <t>dinaalazaridis</t>
         </is>
       </c>
       <c r="B228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>emilyclark1704</t>
+          <t>carolinekronenfeld</t>
         </is>
       </c>
       <c r="B229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>leah.n7</t>
+          <t>nikil_prabhakar</t>
         </is>
       </c>
       <c r="B230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>alex.duda1</t>
+          <t>hannahrossinii</t>
         </is>
       </c>
       <c r="B231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>chaase.obrien</t>
+          <t>nikolas.neos</t>
         </is>
       </c>
       <c r="B232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>juliakucaric</t>
+          <t>yonathan.dagan</t>
         </is>
       </c>
       <c r="B233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>dariyadestinee</t>
+          <t>naees.wrld</t>
         </is>
       </c>
       <c r="B234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>sar._.liuu</t>
+          <t>madsonhayes</t>
         </is>
       </c>
       <c r="B235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>aydenjsanford</t>
+          <t>avasteele_</t>
         </is>
       </c>
       <c r="B236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>ryanhodgson_</t>
+          <t>samihess_</t>
         </is>
       </c>
       <c r="B237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>mollystamm</t>
+          <t>katiekirlough</t>
         </is>
       </c>
       <c r="B238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>bethany_814</t>
+          <t>thoren_meira</t>
         </is>
       </c>
       <c r="B239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>peyton_bosworth</t>
+          <t>jenna.cyr</t>
         </is>
       </c>
       <c r="B240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>annierotsky</t>
+          <t>sophia.randazza</t>
         </is>
       </c>
       <c r="B241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>hannahrossinii</t>
+          <t>ari_17381</t>
         </is>
       </c>
       <c r="B242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>itssssanks</t>
+          <t>jaysonfronk</t>
         </is>
       </c>
       <c r="B243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>audreyfranzese</t>
+          <t>chloe.witman</t>
         </is>
       </c>
       <c r="B244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>sierrabombik</t>
+          <t>avawolfe_</t>
         </is>
       </c>
       <c r="B245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>anvibhavanam</t>
+          <t>maggie.vanhorn</t>
         </is>
       </c>
       <c r="B246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>camdyngoodknight</t>
+          <t>devyn.tusinac</t>
         </is>
       </c>
       <c r="B247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>colinsandfoss</t>
+          <t>oak.hodous</t>
         </is>
       </c>
       <c r="B248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>andie_smithson</t>
+          <t>madelynhann</t>
         </is>
       </c>
       <c r="B249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>vanna.kae</t>
+          <t>audrey_withrow</t>
         </is>
       </c>
       <c r="B250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>delaneyodear</t>
+          <t>delaney_oshea55</t>
         </is>
       </c>
       <c r="B251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>ethanfaber2</t>
+          <t>evaagibsonn</t>
         </is>
       </c>
       <c r="B252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>alyssa.manas</t>
+          <t>macy_mayer10</t>
         </is>
       </c>
       <c r="B253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>elisabeth_fry</t>
+          <t>josh.lampa</t>
         </is>
       </c>
       <c r="B254" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>natalie.digiacomo</t>
+          <t>0in_lucy</t>
         </is>
       </c>
       <c r="B255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>jonahbukovac</t>
+          <t>sarahkavanaggh</t>
         </is>
       </c>
       <c r="B256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>fernando_reich</t>
+          <t>riley.helbig</t>
         </is>
       </c>
       <c r="B257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>gabby.525</t>
+          <t>kaylazetwick</t>
         </is>
       </c>
       <c r="B258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>michaelkeselman</t>
+          <t>dominiquewrkmn</t>
         </is>
       </c>
       <c r="B259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>guhansolo</t>
+          <t>reese.priel</t>
         </is>
       </c>
       <c r="B260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>joe.waxman</t>
+          <t>anikadhingra_</t>
         </is>
       </c>
       <c r="B261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>nicklucci0</t>
+          <t>max.borris04</t>
         </is>
       </c>
       <c r="B262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>sydney.dennison</t>
+          <t>beas.beans</t>
         </is>
       </c>
       <c r="B263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>elledoff_</t>
+          <t>madisonnjjoness</t>
         </is>
       </c>
       <c r="B264" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>jennakopyar</t>
+          <t>derek_mingmongkol</t>
         </is>
       </c>
       <c r="B265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>eli.labbe</t>
+          <t>sidxsridhar</t>
         </is>
       </c>
       <c r="B266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>guy_levi_7</t>
+          <t>kadencelynnnn</t>
         </is>
       </c>
       <c r="B267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>adrine.mason</t>
+          <t>_samisiegel</t>
         </is>
       </c>
       <c r="B268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>cambry.cox</t>
+          <t>niishiii_</t>
         </is>
       </c>
       <c r="B269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>madison.nycole28</t>
+          <t>hirkobraden</t>
         </is>
       </c>
       <c r="B270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>jonas.honeycutt</t>
+          <t>autumnumphress</t>
         </is>
       </c>
       <c r="B271" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>supaashszn</t>
+          <t>nat.h.b</t>
         </is>
       </c>
       <c r="B272" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>jkulig16</t>
+          <t>xpoizon4</t>
         </is>
       </c>
       <c r="B273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>chloe.witman</t>
+          <t>hi.itsmads</t>
         </is>
       </c>
       <c r="B274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>gannon.l</t>
+          <t>ayjonathann</t>
         </is>
       </c>
       <c r="B275" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>madisonnjjoness</t>
+          <t>emily.wilson.23</t>
         </is>
       </c>
       <c r="B276" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>nlandskroener22</t>
+          <t>cadenmeyers2</t>
         </is>
       </c>
       <c r="B277" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>ashleyyy.xii</t>
+          <t>monaa_gopinath</t>
         </is>
       </c>
       <c r="B278" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>_logan_dyer_</t>
+          <t>rachelmiller23</t>
         </is>
       </c>
       <c r="B279" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>kannekanti.satvik</t>
+          <t>grantyes05</t>
         </is>
       </c>
       <c r="B280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>hamzabadawi0</t>
+          <t>parth.ankolikar</t>
         </is>
       </c>
       <c r="B281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>bclarke_9</t>
+          <t>gary.torosian</t>
         </is>
       </c>
       <c r="B282" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>halcy.russell</t>
+          <t>nickreeder10</t>
         </is>
       </c>
       <c r="B283" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>albertanomo_</t>
+          <t>__elana__</t>
         </is>
       </c>
       <c r="B284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>olivia_rinaldi</t>
+          <t>alanjames543</t>
         </is>
       </c>
       <c r="B285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>harikesh_sivam</t>
+          <t>jeremy.abdelmalak</t>
         </is>
       </c>
       <c r="B286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>megannashed</t>
+          <t>_dylankavanagh</t>
         </is>
       </c>
       <c r="B287" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>kindall_michelle</t>
+          <t>rishikothinti</t>
         </is>
       </c>
       <c r="B288" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>chasecrawford05</t>
+          <t>_jesscoffey</t>
         </is>
       </c>
       <c r="B289" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>emamiannaleila</t>
+          <t>masonwilli3ms</t>
         </is>
       </c>
       <c r="B290" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>christina.ddole</t>
+          <t>x.vanessag</t>
         </is>
       </c>
       <c r="B291" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>mia.divenere</t>
+          <t>jademorse__</t>
         </is>
       </c>
       <c r="B292" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>bwhitt.21</t>
+          <t>rajeev_i5</t>
         </is>
       </c>
       <c r="B293" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>emmaa.crabtree</t>
+          <t>calebdacruz</t>
         </is>
       </c>
       <c r="B294" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>j_leib2</t>
+          <t>macyjankowskii</t>
         </is>
       </c>
       <c r="B295" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>carolinekronenfeld</t>
+          <t>ashleyhaveri</t>
         </is>
       </c>
       <c r="B296" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>abuchen54</t>
+          <t>annas_nelson</t>
         </is>
       </c>
       <c r="B297" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>tyler_beckman_</t>
+          <t>puneet.singh13</t>
         </is>
       </c>
       <c r="B298" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>karnatigagan</t>
+          <t>ham4nellie</t>
         </is>
       </c>
       <c r="B299" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>jackkriser</t>
+          <t>adam.m.martin</t>
         </is>
       </c>
       <c r="B300" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>_krisalynj</t>
+          <t>zstrollo_</t>
         </is>
       </c>
       <c r="B301" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>gr4cebowen</t>
+          <t>sophiatshaw</t>
         </is>
       </c>
       <c r="B302" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>evanmill19</t>
+          <t>gannon.l</t>
         </is>
       </c>
       <c r="B303" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>annie.melaragno24</t>
+          <t>kaylachang_</t>
         </is>
       </c>
       <c r="B304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>victorialee.12</t>
+          <t>minion_connor_gartin</t>
         </is>
       </c>
       <c r="B305" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>isley_marie</t>
+          <t>katelynn_lynch_</t>
         </is>
       </c>
       <c r="B306" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>jojojan_214</t>
+          <t>tjbrunner19</t>
         </is>
       </c>
       <c r="B307" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>oakesadkins</t>
+          <t>zgrubens3511</t>
         </is>
       </c>
       <c r="B308" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>stevennadal_</t>
+          <t>lillyweber_</t>
         </is>
       </c>
       <c r="B309" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>ava.hernandez9</t>
+          <t>jessbussanich</t>
         </is>
       </c>
       <c r="B310" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>fayeaboshahba</t>
+          <t>la_salvadorena_5.0.3</t>
         </is>
       </c>
       <c r="B311" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>alliemuseles</t>
+          <t>kkaseymill</t>
         </is>
       </c>
       <c r="B312" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>riya.pradhan3</t>
+          <t>tyler.meader</t>
         </is>
       </c>
       <c r="B313" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>hi.itsmads</t>
+          <t>stephen_karounos</t>
         </is>
       </c>
       <c r="B314" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>itztori101</t>
+          <t>varshini.kashyap</t>
         </is>
       </c>
       <c r="B315" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>_sophielemond</t>
+          <t>netaelrann</t>
         </is>
       </c>
       <c r="B316" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>e_moo.re</t>
+          <t>nic.digena</t>
         </is>
       </c>
       <c r="B317" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>sophianwagner</t>
+          <t>chasecrawford05</t>
         </is>
       </c>
       <c r="B318" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>sarahkavanaggh</t>
+          <t>meghan.durkin</t>
         </is>
       </c>
       <c r="B319" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>drew_m513</t>
+          <t>emilyyshermann</t>
         </is>
       </c>
       <c r="B320" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>katie.cavanaugh_</t>
+          <t>kasi_hari</t>
         </is>
       </c>
       <c r="B321" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>lamisarkhan</t>
+          <t>ttr.ent</t>
         </is>
       </c>
       <c r="B322" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>lydiakefalas</t>
+          <t>cplatt004</t>
         </is>
       </c>
       <c r="B323" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>teresaachkar</t>
+          <t>jada_mylah</t>
         </is>
       </c>
       <c r="B324" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>abbie.bell_</t>
+          <t>brian_rieth</t>
         </is>
       </c>
       <c r="B325" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>gabe.tangeman</t>
+          <t>fatima.ysuf</t>
         </is>
       </c>
       <c r="B326" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>brenna.henry_8</t>
+          <t>emma.gach17</t>
         </is>
       </c>
       <c r="B327" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>julsfortner</t>
+          <t>liya.mamo</t>
         </is>
       </c>
       <c r="B328" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>isabellam_04</t>
+          <t>virginialindvall</t>
         </is>
       </c>
       <c r="B329" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>evaneichel7</t>
+          <t>arya.shah08</t>
         </is>
       </c>
       <c r="B330" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>kaliiwells</t>
+          <t>corsinardello_</t>
         </is>
       </c>
       <c r="B331" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>taylorjacobson04</t>
+          <t>zachjensch</t>
         </is>
       </c>
       <c r="B332" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>annika_padhye</t>
+          <t>avaalberts_</t>
         </is>
       </c>
       <c r="B333" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>hrushi_m23</t>
+          <t>ava_sadkin</t>
         </is>
       </c>
       <c r="B334" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>meg_agerton</t>
+          <t>troy_oconnor_</t>
         </is>
       </c>
       <c r="B335" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>kaylachang_</t>
+          <t>skysthelimit77</t>
         </is>
       </c>
       <c r="B336" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>anastasia.zambidis</t>
+          <t>michael__greulich</t>
         </is>
       </c>
       <c r="B337" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>lillibowen</t>
+          <t>kannekanti.satvik</t>
         </is>
       </c>
       <c r="B338" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>haddeneliz</t>
+          <t>nosrslyitsmaria</t>
         </is>
       </c>
       <c r="B339" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>jasmineealyson_</t>
+          <t>_joebourbeau</t>
         </is>
       </c>
       <c r="B340" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>paultilyou22</t>
+          <t>stro.mel</t>
         </is>
       </c>
       <c r="B341" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>jake.johnson05</t>
+          <t>k.pirone</t>
         </is>
       </c>
       <c r="B342" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>alliegribben</t>
+          <t>brigitte.priel</t>
         </is>
       </c>
       <c r="B343" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>tonystabile17</t>
+          <t>owenjohnson22</t>
         </is>
       </c>
       <c r="B344" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>lyla.glinski</t>
+          <t>calebberns</t>
         </is>
       </c>
       <c r="B345" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>magdalena.frelek</t>
+          <t>devenphilip</t>
         </is>
       </c>
       <c r="B346" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>ksandborn24</t>
+          <t>ashleyyy.xii</t>
         </is>
       </c>
       <c r="B347" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>ryanhussey_</t>
+          <t>vicky_strom_</t>
         </is>
       </c>
       <c r="B348" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>savannah_sipp</t>
+          <t>lily.andrews5</t>
         </is>
       </c>
       <c r="B349" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ellamohler</t>
+          <t>zach.spera_</t>
         </is>
       </c>
       <c r="B350" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>olivia_rittenhouse_</t>
+          <t>_tessathomas_</t>
         </is>
       </c>
       <c r="B351" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>meghan.oreos</t>
+          <t>vibhavk8</t>
         </is>
       </c>
       <c r="B352" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>caroline_berryman</t>
+          <t>dhrutii.shah</t>
         </is>
       </c>
       <c r="B353" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>ava_foor</t>
+          <t>catie.russ143</t>
         </is>
       </c>
       <c r="B354" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>vicky_strom_</t>
+          <t>tristaamayy</t>
         </is>
       </c>
       <c r="B355" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>richelleritchieee</t>
+          <t>ksandborn24</t>
         </is>
       </c>
       <c r="B356" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>riley.helbig</t>
+          <t>itsb.pinkk</t>
         </is>
       </c>
       <c r="B357" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>isagosser</t>
+          <t>joey_mace</t>
         </is>
       </c>
       <c r="B358" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>jonathanmrawlings</t>
+          <t>_justinlewiss_</t>
         </is>
       </c>
       <c r="B359" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>juliannecrutchfield</t>
+          <t>joh_nny040</t>
         </is>
       </c>
       <c r="B360" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>owenjohnson22</t>
+          <t>redrockethood</t>
         </is>
       </c>
       <c r="B361" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>lauren1ambert</t>
+          <t>taraamccusker</t>
         </is>
       </c>
       <c r="B362" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>emilyvonkrosigk</t>
+          <t>ballnuel</t>
         </is>
       </c>
       <c r="B363" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>katie.hymel</t>
+          <t>nicklucci0</t>
         </is>
       </c>
       <c r="B364" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>_amandachristner</t>
+          <t>bella.v.5</t>
         </is>
       </c>
       <c r="B365" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>leah.riso</t>
+          <t>jackkriser</t>
         </is>
       </c>
       <c r="B366" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>adam.m.martin</t>
+          <t>nat_coolstuf</t>
         </is>
       </c>
       <c r="B367" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>lukerosenthaal</t>
+          <t>margaretdonnelly_</t>
         </is>
       </c>
       <c r="B368" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>marleyrae0117</t>
+          <t>karnatigagan</t>
         </is>
       </c>
       <c r="B369" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>sami.steinhauser</t>
+          <t>gmmccreary3</t>
         </is>
       </c>
       <c r="B370" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>cecepaglia</t>
+          <t>reese_hearon8</t>
         </is>
       </c>
       <c r="B371" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>loganoden_</t>
+          <t>lyla.glinski</t>
         </is>
       </c>
       <c r="B372" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>kayleewray</t>
+          <t>aaronegolf</t>
         </is>
       </c>
       <c r="B373" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>joelle.oliviaaa</t>
+          <t>jess.glacken</t>
         </is>
       </c>
       <c r="B374" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>devenphilip</t>
+          <t>_nikkimo</t>
         </is>
       </c>
       <c r="B375" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>karthik_kallam</t>
+          <t>joelle.oliviaaa</t>
         </is>
       </c>
       <c r="B376" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>ellakbowman</t>
+          <t>emmaa.crabtree</t>
         </is>
       </c>
       <c r="B377" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>giacdente</t>
+          <t>maddyaltman</t>
         </is>
       </c>
       <c r="B378" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>3van.jos</t>
+          <t>hot.pot.l</t>
         </is>
       </c>
       <c r="B379" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>miazarroli</t>
+          <t>laura.felderean</t>
         </is>
       </c>
       <c r="B380" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>beas.beans</t>
+          <t>meg_agerton</t>
         </is>
       </c>
       <c r="B381" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>hannahaheifetz</t>
+          <t>maddymccuen_</t>
         </is>
       </c>
       <c r="B382" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>zstrollo_</t>
+          <t>raul.gxrcia</t>
         </is>
       </c>
       <c r="B383" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>kayyladevore</t>
+          <t>rhushathp</t>
         </is>
       </c>
       <c r="B384" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>lexismccombs</t>
+          <t>piper_holmes</t>
         </is>
       </c>
       <c r="B385" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>ben.stummer</t>
+          <t>vipulrao5</t>
         </is>
       </c>
       <c r="B386" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>loryn_elsasser</t>
+          <t>colin_27_batten</t>
         </is>
       </c>
       <c r="B387" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>aakashshxh</t>
+          <t>rachel.turnerrr</t>
         </is>
       </c>
       <c r="B388" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>rookie_akshansh</t>
+          <t>erinaharrison_</t>
         </is>
       </c>
       <c r="B389" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>erik_bratton</t>
+          <t>_laurenmcgraw_</t>
         </is>
       </c>
       <c r="B390" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>lily.andrews5</t>
+          <t>rookie_akshansh</t>
         </is>
       </c>
       <c r="B391" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>varsh.kas</t>
+          <t>devarth_patel26</t>
         </is>
       </c>
       <c r="B392" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>shaya_azadi</t>
+          <t>sophiaaawohl</t>
         </is>
       </c>
       <c r="B393" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>ellen_babs2</t>
+          <t>demoss.katherine05</t>
         </is>
       </c>
       <c r="B394" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>rshah_09</t>
+          <t>laylamouneimne</t>
         </is>
       </c>
       <c r="B395" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>isabella_mcconnell</t>
+          <t>cordee_j</t>
         </is>
       </c>
       <c r="B396" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>joslynnelakkatt</t>
+          <t>ryan.gramza</t>
         </is>
       </c>
       <c r="B397" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>itztori101</t>
+        </is>
+      </c>
+      <c r="B398" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>kdowdy35</t>
+        </is>
+      </c>
+      <c r="B399" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>aricathies</t>
+        </is>
+      </c>
+      <c r="B400" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>miazarroli</t>
+        </is>
+      </c>
+      <c r="B401" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>joshua.clemons5</t>
+        </is>
+      </c>
+      <c r="B402" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>kirsten_shaneyfelt</t>
+        </is>
+      </c>
+      <c r="B403" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>isagosser</t>
+        </is>
+      </c>
+      <c r="B404" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>_afua.danquah_</t>
+        </is>
+      </c>
+      <c r="B405" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>karthik_kallam</t>
+        </is>
+      </c>
+      <c r="B406" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>alexyoushak</t>
+        </is>
+      </c>
+      <c r="B407" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>jack.cuff_</t>
+        </is>
+      </c>
+      <c r="B408" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>eddie.leeeee</t>
+        </is>
+      </c>
+      <c r="B409" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>natalirice</t>
+        </is>
+      </c>
+      <c r="B410" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>ali.saraeb</t>
+        </is>
+      </c>
+      <c r="B411" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>sanju_gudla</t>
+        </is>
+      </c>
+      <c r="B412" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>3van.jos</t>
+        </is>
+      </c>
+      <c r="B413" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>allison_m6</t>
+        </is>
+      </c>
+      <c r="B414" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>srujangarimella</t>
+        </is>
+      </c>
+      <c r="B415" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>sara_hermiller</t>
+        </is>
+      </c>
+      <c r="B416" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>lbilek_51</t>
+        </is>
+      </c>
+      <c r="B417" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>____.viktoria</t>
+        </is>
+      </c>
+      <c r="B418" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>m31nth3c0rn3r</t>
+        </is>
+      </c>
+      <c r="B419" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>ca.rlii</t>
+        </is>
+      </c>
+      <c r="B420" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>abbie.wonnell</t>
+        </is>
+      </c>
+      <c r="B421" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>addie.monter</t>
+        </is>
+      </c>
+      <c r="B422" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>annashaheen</t>
+        </is>
+      </c>
+      <c r="B423" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>kateycroyle5</t>
+        </is>
+      </c>
+      <c r="B424" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>abraham.yoon</t>
+        </is>
+      </c>
+      <c r="B425" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>eddie.kuper</t>
+        </is>
+      </c>
+      <c r="B426" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>therealdaddydev</t>
+        </is>
+      </c>
+      <c r="B427" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>rshah_09</t>
+        </is>
+      </c>
+      <c r="B428" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>matturda7</t>
+        </is>
+      </c>
+      <c r="B429" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>eli.labbe</t>
+        </is>
+      </c>
+      <c r="B430" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>yaxkob</t>
+        </is>
+      </c>
+      <c r="B431" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>rayna_k_</t>
+        </is>
+      </c>
+      <c r="B432" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>nalini.i_</t>
+        </is>
+      </c>
+      <c r="B433" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>__matthewanthony__</t>
+        </is>
+      </c>
+      <c r="B434" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>katie.cavanaugh_</t>
+        </is>
+      </c>
+      <c r="B435" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>sarahschwartze_</t>
+        </is>
+      </c>
+      <c r="B436" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>jacobdulski</t>
+        </is>
+      </c>
+      <c r="B437" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>richardmclane3</t>
+        </is>
+      </c>
+      <c r="B438" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>rishi_dhaya</t>
+        </is>
+      </c>
+      <c r="B439" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>evelyn.miller_</t>
+        </is>
+      </c>
+      <c r="B440" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>josh_eyerman</t>
+        </is>
+      </c>
+      <c r="B441" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>riyazutshi</t>
+        </is>
+      </c>
+      <c r="B442" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>jonathanmrawlings</t>
+        </is>
+      </c>
+      <c r="B443" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>julia_the_duck_123</t>
+        </is>
+      </c>
+      <c r="B444" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>isabelrod_</t>
+        </is>
+      </c>
+      <c r="B445" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>gavinb0510</t>
+        </is>
+      </c>
+      <c r="B446" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>kennshamarr._</t>
+        </is>
+      </c>
+      <c r="B447" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>luke.longo26</t>
+        </is>
+      </c>
+      <c r="B448" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>14kmc14</t>
+        </is>
+      </c>
+      <c r="B449" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>janiraelise</t>
+        </is>
+      </c>
+      <c r="B450" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>vigneau77777</t>
+        </is>
+      </c>
+      <c r="B451" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>prinxess._.mari</t>
+        </is>
+      </c>
+      <c r="B452" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>christinaliccardi11</t>
+        </is>
+      </c>
+      <c r="B453" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>vineethdondapati</t>
+        </is>
+      </c>
+      <c r="B454" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>hof.willaholic</t>
+        </is>
+      </c>
+      <c r="B455" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>evaneichel7</t>
+        </is>
+      </c>
+      <c r="B456" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>_sophielemond</t>
+        </is>
+      </c>
+      <c r="B457" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>josh_pittner</t>
+        </is>
+      </c>
+      <c r="B458" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>jessjilek</t>
+        </is>
+      </c>
+      <c r="B459" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>jack_nadal_</t>
+        </is>
+      </c>
+      <c r="B460" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>juliakucaric</t>
+        </is>
+      </c>
+      <c r="B461" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>_ishabangura</t>
+        </is>
+      </c>
+      <c r="B462" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>jennareeddddd</t>
+        </is>
+      </c>
+      <c r="B463" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>jeromegoodloe</t>
+        </is>
+      </c>
+      <c r="B464" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>mayadesilva4</t>
+        </is>
+      </c>
+      <c r="B465" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>tarini_gowda</t>
+        </is>
+      </c>
+      <c r="B466" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>mollystamm</t>
+        </is>
+      </c>
+      <c r="B467" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>zachary_land</t>
+        </is>
+      </c>
+      <c r="B468" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>ryanhussey_</t>
+        </is>
+      </c>
+      <c r="B469" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>jonmlawski</t>
+        </is>
+      </c>
+      <c r="B470" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>calebfriedman_</t>
+        </is>
+      </c>
+      <c r="B471" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>skylarsmith__</t>
+        </is>
+      </c>
+      <c r="B472" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>lilyhyman</t>
+        </is>
+      </c>
+      <c r="B473" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>ben.stummer</t>
+        </is>
+      </c>
+      <c r="B474" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>kukreja_a33</t>
+        </is>
+      </c>
+      <c r="B475" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>addisoncrocker_</t>
+        </is>
+      </c>
+      <c r="B476" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>lilatye</t>
+        </is>
+      </c>
+      <c r="B477" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>mmanas2_</t>
+        </is>
+      </c>
+      <c r="B478" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>reese_vollweiler</t>
+        </is>
+      </c>
+      <c r="B479" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>chaase.obrien</t>
+        </is>
+      </c>
+      <c r="B480" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>avacarrow</t>
+        </is>
+      </c>
+      <c r="B481" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>emilyrabinn</t>
+        </is>
+      </c>
+      <c r="B482" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>lonorozz</t>
+        </is>
+      </c>
+      <c r="B483" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>_margotpaul</t>
+        </is>
+      </c>
+      <c r="B484" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>mia.robinson__</t>
+        </is>
+      </c>
+      <c r="B485" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>emma.gkennedy</t>
+        </is>
+      </c>
+      <c r="B486" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>hannahwelch23</t>
+        </is>
+      </c>
+      <c r="B487" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>isabella_staschiak</t>
+        </is>
+      </c>
+      <c r="B488" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>rachel_lehman</t>
+        </is>
+      </c>
+      <c r="B489" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>mjade.__</t>
+        </is>
+      </c>
+      <c r="B490" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>drew_b1013</t>
+        </is>
+      </c>
+      <c r="B491" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>_emilyjcopeland_</t>
+        </is>
+      </c>
+      <c r="B492" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>willtford</t>
+        </is>
+      </c>
+      <c r="B493" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>giacdente</t>
+        </is>
+      </c>
+      <c r="B494" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>emmagoodingg</t>
+        </is>
+      </c>
+      <c r="B495" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>jwl.png</t>
+        </is>
+      </c>
+      <c r="B496" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>nick.biega</t>
+        </is>
+      </c>
+      <c r="B497" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>gaby.lops</t>
+        </is>
+      </c>
+      <c r="B498" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>ross_da_3rd</t>
+        </is>
+      </c>
+      <c r="B499" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>kayleewray</t>
+        </is>
+      </c>
+      <c r="B500" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>pranavr8642</t>
+        </is>
+      </c>
+      <c r="B501" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>delaneyodear</t>
+        </is>
+      </c>
+      <c r="B502" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>e_moo.re</t>
+        </is>
+      </c>
+      <c r="B503" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>jadaramoss</t>
+        </is>
+      </c>
+      <c r="B504" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>kendall.pace</t>
+        </is>
+      </c>
+      <c r="B505" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>master_ap_22</t>
+        </is>
+      </c>
+      <c r="B506" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>alyssa.manas</t>
+        </is>
+      </c>
+      <c r="B507" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>jordyn.rittenhouse</t>
+        </is>
+      </c>
+      <c r="B508" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>hillaryesper_</t>
+        </is>
+      </c>
+      <c r="B509" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>millenadesta</t>
+        </is>
+      </c>
+      <c r="B510" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>lamisarkhan</t>
+        </is>
+      </c>
+      <c r="B511" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>jared.b.23</t>
+        </is>
+      </c>
+      <c r="B512" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>nlandskroener22</t>
+        </is>
+      </c>
+      <c r="B513" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
